--- a/medicine/Psychotrope/Tasse-braise/Tasse-braise.xlsx
+++ b/medicine/Psychotrope/Tasse-braise/Tasse-braise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le tasse-braise ou bourre-pipe, est l'accessoire indispensable du fumeur de pipe[1]. 
+Le tasse-braise ou bourre-pipe, est l'accessoire indispensable du fumeur de pipe. 
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa fonction est de tasser les braises après l'allumage et, si nécessaire, au long du fumage pour assurer la bonne combustion du tabac.
 Le tasse-braise est souvent associé au un cure-pipe composé d’une pointe destiné à nettoyer la tige de la pipe, et d’un grattoir servant à gratter l'excès de carbone dans le fourneau.
@@ -548,7 +562,9 @@
           <t>Cure pipe basique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A la fois simple et efficace, cet outil est très peu onéreux ; de deux à une douzaine d’euros, selon sa qualité. Le plus basique d’entre eux, appelé « Petit tchèque » par la communauté des fumeurs de pipe car il est fabriqué en République tchèque (autrefois produit d’ailleurs en Tchécoslovaquie) est le plus couramment utilisé :
 Viennent ensuite des modèles légèrement plus onéreux, qui ont une meilleure qualité et une meilleure finition :
@@ -580,7 +596,9 @@
           <t>Tasse-braise</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Qu’il soit fabriqué en grande série ou artisanalement, cet outil se veut plus raffiné même s’il n’intègre pas tous les aspects pratiques du cure-pipe.
 Les matériaux généralement employés pour sa conception sont de bonne qualité, et la forme ainsi que la finition de l’objet en font parfois de véritables objets d’art.
